--- a/project/presentation/포트폴리오 주소 리스트 - 평가표.xlsx
+++ b/project/presentation/포트폴리오 주소 리스트 - 평가표.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Classess\2022_2ndSemester\DataStructures\Week14_기말발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taeim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085046A-3CF5-44CE-A4EB-831B9E032416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592C97F-A09F-4CF1-9EDD-281AB06F5FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17460" xr2:uid="{689EAC01-5405-4025-AEF7-25AD71EDF4CE}"/>
+    <workbookView xWindow="3740" yWindow="5930" windowWidth="5000" windowHeight="2610" xr2:uid="{689EAC01-5405-4025-AEF7-25AD71EDF4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="192">
   <si>
     <t>배유하</t>
   </si>
@@ -508,7 +508,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포트폴리오(중간발표) / 기말발표 포트폴리오주소 업데이트 예정</t>
+    <t>포트폴리오(중간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오(기말)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.notion.so/baeyuha/a6e03d0aa373404692ba4e6d07f27d21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@clover88/%EA%B8%B0%EB%A7%90-%ED%94%84%EB%A1%9C%EC%A0%9D%ED%8A%B8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://minminscodingroom.tistory.com/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tjwjd.tistory.com/42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pricey-vicuna-cf6.notion.site/Final-Project-6c306094bc394eb99d6aff70c4689436</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@iamyesl/ProjectForLifeBelowRiverFin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gusty-ranunculus-6f3.notion.site/e0b57b4e179c450f993459e218c37f68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@nxxxn/%EA%B8%B0%EB%A7%90-%EA%B3%BC%EC%A0%9C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://evermoregreynovemberdecember.tistory.com/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@aenyoung/%EC%9E%90%EB%A3%8C%EA%B5%AC%EC%A1%B0%EC%8B%A4%EC%8A%B5-%EA%B8%B0%EB%A7%90-%EA%B3%BC%EC%A0%9C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ssddoopp2656/222946165773</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/forme_cj/222945842348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/nsy1382/222945775005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@minkyung2121/FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://quan00.tistory.com/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chaesoong2.tistory.com/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@songga0ee/FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@sitdown/FINHW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ngc6397_/222946143757</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/somnium0221/222945414079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/shim-woo-hyeon/222945556216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/imm2_/222946025581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jjaelman.tistory.com/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dashaeun.tistory.com/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.notion.so/Final-Project-20a748581ec64a0aa88877a2147299ca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/leesohyun613/222946148673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tootoo-ai21/222945464478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@sisihan_sj/자료-구조-실습FID-Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://daily-codinging.tistory.com/303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/wodbs370567/222946151952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://this-is-hyeon.github.io/FINAL/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://record-everything.tistory.com/entry/%EC%9E%90%EB%A3%8C%EA%B5%AC%EC%A1%B0-%ED%94%84%EB%A1%9C%EC%A0%9D%ED%8A%B8-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.notion.so/2022-bbb6bc92407b40808976f148d4614d55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://heavenly-meteorite-3c6.notion.site/FIN-4d08862774fd4a78904bbea92ffd7c77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dapin1490.github.io/satinbower/posts/it-dst-project-end/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@ehekaanldk/Project%EA%B8%B0%EB%A7%90%EB%B0%9C%ED%91%9C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chaeming08/222944823521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sweetyleah2/222946149515</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://developer-psy.tistory.com/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmimg-1.tistory.com/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/0809jspark/222946049063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/yujinseo925/222945983049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sjsim2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reiiiii.tistory.com/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lean-share-95d.notion.site/2328aa958e1a4c49a748c1b11a46dccb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/im-insanis/portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.notion.so/Fin-Project-bcb3c15fa495451da409894fb8f34bdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jangjang0022/222945541725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/2011402yerin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@sunkyoung19/자료구조-실습-프로젝트2-하천쓰레기-수집-알고리즘FINAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dbruddl56/222945589495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kb081544/Data-Structure-2022/tree/main/Project/Final-term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sweltering-toad-08a.notion.site/a8604359befb4cd6b6d6fa273e2ec759</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bin2e.tistory.com/18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +873,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,11 +898,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>469900</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -733,9 +957,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>469900</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -788,9 +1012,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>469900</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -837,9 +1061,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>222250</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
@@ -891,7 +1115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1187,19 +1411,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31400AF-EB0B-451B-B8E9-4253D3B1C7EA}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="6" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="196" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>134</v>
       </c>
@@ -1211,8 +1436,9 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>126</v>
       </c>
@@ -1228,8 +1454,9 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>128</v>
       </c>
@@ -1245,8 +1472,9 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>130</v>
       </c>
@@ -1262,8 +1490,9 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>132</v>
       </c>
@@ -1279,9 +1508,10 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>119</v>
       </c>
@@ -1307,10 +1537,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1327,10 +1560,13 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1347,10 +1583,13 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1367,10 +1606,13 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1387,10 +1629,13 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1407,10 +1652,13 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1427,10 +1675,13 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1447,10 +1698,13 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1467,10 +1721,13 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1487,10 +1744,13 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1507,10 +1767,13 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1527,10 +1790,13 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1547,10 +1813,13 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1567,10 +1836,13 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1587,10 +1859,13 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1607,10 +1882,13 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -1627,10 +1905,13 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -1647,10 +1928,13 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -1667,10 +1951,13 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -1687,10 +1974,13 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -1707,10 +1997,13 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -1727,10 +2020,13 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1747,10 +2043,13 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -1767,10 +2066,13 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -1787,10 +2089,13 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -1807,10 +2112,13 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -1826,11 +2134,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>27</v>
       </c>
@@ -1847,10 +2158,13 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>28</v>
       </c>
@@ -1867,10 +2181,13 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>29</v>
       </c>
@@ -1887,10 +2204,13 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>30</v>
       </c>
@@ -1907,10 +2227,13 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>31</v>
       </c>
@@ -1927,10 +2250,13 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>32</v>
       </c>
@@ -1947,10 +2273,13 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>33</v>
       </c>
@@ -1967,10 +2296,13 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>34</v>
       </c>
@@ -1987,10 +2319,13 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -2007,10 +2342,13 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -2027,10 +2365,13 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>37</v>
       </c>
@@ -2046,11 +2387,14 @@
         <v>0</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>38</v>
       </c>
@@ -2067,10 +2411,13 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>39</v>
       </c>
@@ -2087,10 +2434,13 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>40</v>
       </c>
@@ -2107,10 +2457,13 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>41</v>
       </c>
@@ -2127,10 +2480,13 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>42</v>
       </c>
@@ -2147,10 +2503,13 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43</v>
       </c>
@@ -2167,10 +2526,13 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44</v>
       </c>
@@ -2187,10 +2549,13 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>45</v>
       </c>
@@ -2206,11 +2571,14 @@
         <v>0</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>46</v>
       </c>
@@ -2227,10 +2595,13 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>47</v>
       </c>
@@ -2246,11 +2617,14 @@
         <v>0</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>48</v>
       </c>
@@ -2267,10 +2641,13 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>49</v>
       </c>
@@ -2287,10 +2664,13 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>50</v>
       </c>
@@ -2307,10 +2687,13 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>51</v>
       </c>
@@ -2327,10 +2710,13 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>52</v>
       </c>
@@ -2346,11 +2732,14 @@
         <v>0</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>53</v>
       </c>
@@ -2367,10 +2756,13 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>54</v>
       </c>
@@ -2387,10 +2779,13 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>55</v>
       </c>
@@ -2407,10 +2802,13 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -2427,10 +2825,13 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>57</v>
       </c>
@@ -2447,10 +2848,13 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>58</v>
       </c>
@@ -2467,10 +2871,13 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>59</v>
       </c>
@@ -2487,98 +2894,155 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I66" r:id="rId1" xr:uid="{ACAFCF92-EACA-440A-8B31-61CA2317FB78}"/>
-    <hyperlink ref="I65" r:id="rId2" xr:uid="{5101D451-D765-4670-88A2-2DF4B0B40F2C}"/>
-    <hyperlink ref="I64" r:id="rId3" xr:uid="{AF4B7D2F-105A-4774-ACC8-5C174FC384A6}"/>
-    <hyperlink ref="I63" r:id="rId4" xr:uid="{E3E6B344-5E80-495B-9FD1-3D270D43248C}"/>
-    <hyperlink ref="I62" r:id="rId5" xr:uid="{3F0DEB8C-ACEF-4BC5-BEB9-14B60398186B}"/>
-    <hyperlink ref="I61" r:id="rId6" xr:uid="{84E920D7-7816-45BC-A1C4-98B1372F590B}"/>
-    <hyperlink ref="I60" r:id="rId7" xr:uid="{A6000BAA-CD2E-44E0-B9AA-8E21D36017ED}"/>
-    <hyperlink ref="I59" r:id="rId8" xr:uid="{1EA1A83B-0D8C-46BF-869D-32A9C3AE751E}"/>
-    <hyperlink ref="I58" r:id="rId9" xr:uid="{D33337A0-C7E9-481D-8A6B-345B1E758C43}"/>
-    <hyperlink ref="I57" r:id="rId10" xr:uid="{51C955D3-1A4C-4B13-B988-C640D8DB39DB}"/>
-    <hyperlink ref="I56" r:id="rId11" xr:uid="{9D3C870B-85FA-4F22-B56E-762C8DB5F4E2}"/>
-    <hyperlink ref="I55" r:id="rId12" xr:uid="{59FE4254-5AFB-471B-AEA6-0CF2744772DF}"/>
-    <hyperlink ref="I54" r:id="rId13" xr:uid="{11D6345D-04D2-4C50-B2ED-D03BA7811DA2}"/>
-    <hyperlink ref="I53" r:id="rId14" xr:uid="{A9349DB9-0FF9-431A-93BB-C4F24836F429}"/>
-    <hyperlink ref="I52" r:id="rId15" xr:uid="{60992984-D366-4936-94CD-0604DC314B17}"/>
-    <hyperlink ref="I51" r:id="rId16" xr:uid="{3AC6155A-DD81-49EF-BEE5-73FEF7A4BE45}"/>
-    <hyperlink ref="I50" r:id="rId17" xr:uid="{8996367E-A2BB-4918-87DF-7C2716E50D58}"/>
-    <hyperlink ref="I49" r:id="rId18" xr:uid="{D5428146-BC70-41CE-B713-F4240981A7CC}"/>
-    <hyperlink ref="I48" r:id="rId19" xr:uid="{F0A4D3B8-866A-4664-B8B6-C60CA02FB8F6}"/>
-    <hyperlink ref="I47" r:id="rId20" xr:uid="{28B99380-49BF-4DC4-94AA-EE83B3FB4E1F}"/>
-    <hyperlink ref="I46" r:id="rId21" xr:uid="{34F6FC8F-3D67-467B-83A4-C4EC02CA4DD8}"/>
-    <hyperlink ref="I45" r:id="rId22" xr:uid="{DC5B0713-FD0F-4229-9962-813C58C099AE}"/>
-    <hyperlink ref="I44" r:id="rId23" xr:uid="{C18A41A9-5346-4E15-BA2D-BE2C1D448503}"/>
-    <hyperlink ref="I43" r:id="rId24" xr:uid="{216F0CBF-ACFF-41D0-A0C3-2B1B133368D6}"/>
-    <hyperlink ref="I42" r:id="rId25" xr:uid="{15503DD4-8DC6-4E8E-9783-4672AE87254E}"/>
-    <hyperlink ref="I41" r:id="rId26" xr:uid="{D952898D-4B54-4B71-AC5B-98E76EC47529}"/>
-    <hyperlink ref="I40" r:id="rId27" xr:uid="{3FCED829-2860-4A76-A962-20F2B70B1AE8}"/>
-    <hyperlink ref="I39" r:id="rId28" xr:uid="{902861CE-F0DC-4B4C-A287-7B4ABE342973}"/>
-    <hyperlink ref="I38" r:id="rId29" xr:uid="{AD0832D1-B057-4651-BB64-87CEBE5CF149}"/>
-    <hyperlink ref="I37" r:id="rId30" xr:uid="{29C5E761-E391-4B2B-A526-356D72B5227F}"/>
-    <hyperlink ref="I36" r:id="rId31" xr:uid="{A0F2F790-BC65-41DB-BF56-C725D7FD7117}"/>
-    <hyperlink ref="I35" r:id="rId32" xr:uid="{AF6E5DA5-E1DC-46E1-AA9D-139DB32DAD29}"/>
-    <hyperlink ref="I34" r:id="rId33" xr:uid="{5202ECD5-1F01-466F-89CD-39476DF2EE4E}"/>
-    <hyperlink ref="I33" r:id="rId34" xr:uid="{70DB60E9-A20F-4AA6-9C61-27836B59656D}"/>
-    <hyperlink ref="I32" r:id="rId35" xr:uid="{DB782125-213D-44F7-B1D9-4D964D4B1F7F}"/>
-    <hyperlink ref="I31" r:id="rId36" xr:uid="{24A3CC63-DA83-466E-9CC5-C0444BB47376}"/>
-    <hyperlink ref="I30" r:id="rId37" xr:uid="{C7B9ED62-819E-42BC-B290-84895844753A}"/>
-    <hyperlink ref="I29" r:id="rId38" xr:uid="{9D5A1443-9591-4700-A5C0-483ADD62B25B}"/>
-    <hyperlink ref="I28" r:id="rId39" xr:uid="{BDC543A6-5842-4728-9ACA-37DFA1197C8C}"/>
-    <hyperlink ref="I27" r:id="rId40" xr:uid="{8174478B-38C0-482F-ABBA-47F88DFD778C}"/>
-    <hyperlink ref="I26" r:id="rId41" xr:uid="{B7D54CDF-8A53-45C8-B7CA-529D03CE1497}"/>
-    <hyperlink ref="I25" r:id="rId42" xr:uid="{9DC23D31-A617-480D-A5B5-3DCD6671550D}"/>
-    <hyperlink ref="I24" r:id="rId43" xr:uid="{AE2CEFAE-64A9-4EC0-B265-73D32C168EDE}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{C10D72B9-442C-406A-B654-A0B7F37347B0}"/>
-    <hyperlink ref="I22" r:id="rId45" xr:uid="{32B55323-F847-4BB6-ABA5-05806B93F1A3}"/>
-    <hyperlink ref="I21" r:id="rId46" xr:uid="{8EAC1CF8-C7BB-4D4E-9BD6-46584EBD0E19}"/>
-    <hyperlink ref="I20" r:id="rId47" xr:uid="{22B9226F-5A6A-4FA9-9C46-62677D32214D}"/>
-    <hyperlink ref="I19" r:id="rId48" xr:uid="{FE70383B-218E-4857-A6BB-18C2507FFEE0}"/>
-    <hyperlink ref="I18" r:id="rId49" xr:uid="{51E1921B-4BE8-4348-AF1C-6B5C9155A8E7}"/>
-    <hyperlink ref="I17" r:id="rId50" xr:uid="{C759CEB0-3779-47B4-B8E0-BF2307B35D32}"/>
-    <hyperlink ref="I16" r:id="rId51" xr:uid="{AE74A590-419D-4926-87D6-430F4C45B339}"/>
-    <hyperlink ref="I15" r:id="rId52" xr:uid="{8BFBEB1A-5663-4635-9206-EAAB9D45793D}"/>
-    <hyperlink ref="I14" r:id="rId53" xr:uid="{95238CF3-ED97-4629-BC17-8DA6D18F8964}"/>
-    <hyperlink ref="I13" r:id="rId54" xr:uid="{685EB5E9-2B0E-4EB7-89D0-540DCDFDC879}"/>
-    <hyperlink ref="I12" r:id="rId55" xr:uid="{C88C742A-F80B-4C6A-829F-04337FAB0C38}"/>
-    <hyperlink ref="I11" r:id="rId56" xr:uid="{BDE4AF3A-098B-44C3-ACE2-01122986F045}"/>
-    <hyperlink ref="I10" r:id="rId57" xr:uid="{21E6C31D-F10B-4FB4-82B7-AB9EC549883A}"/>
-    <hyperlink ref="I8" r:id="rId58" xr:uid="{E52637A3-4CDB-4921-9C48-4B69465984BB}"/>
-    <hyperlink ref="I9" r:id="rId59" xr:uid="{10BE823D-B6BE-469C-9AEA-8C08EEB20912}"/>
+    <hyperlink ref="J66" r:id="rId1" xr:uid="{ACAFCF92-EACA-440A-8B31-61CA2317FB78}"/>
+    <hyperlink ref="J65" r:id="rId2" xr:uid="{5101D451-D765-4670-88A2-2DF4B0B40F2C}"/>
+    <hyperlink ref="J64" r:id="rId3" xr:uid="{AF4B7D2F-105A-4774-ACC8-5C174FC384A6}"/>
+    <hyperlink ref="J63" r:id="rId4" xr:uid="{E3E6B344-5E80-495B-9FD1-3D270D43248C}"/>
+    <hyperlink ref="J62" r:id="rId5" xr:uid="{3F0DEB8C-ACEF-4BC5-BEB9-14B60398186B}"/>
+    <hyperlink ref="J61" r:id="rId6" xr:uid="{84E920D7-7816-45BC-A1C4-98B1372F590B}"/>
+    <hyperlink ref="J60" r:id="rId7" xr:uid="{A6000BAA-CD2E-44E0-B9AA-8E21D36017ED}"/>
+    <hyperlink ref="J59" r:id="rId8" xr:uid="{1EA1A83B-0D8C-46BF-869D-32A9C3AE751E}"/>
+    <hyperlink ref="J58" r:id="rId9" xr:uid="{D33337A0-C7E9-481D-8A6B-345B1E758C43}"/>
+    <hyperlink ref="J57" r:id="rId10" xr:uid="{51C955D3-1A4C-4B13-B988-C640D8DB39DB}"/>
+    <hyperlink ref="J56" r:id="rId11" xr:uid="{9D3C870B-85FA-4F22-B56E-762C8DB5F4E2}"/>
+    <hyperlink ref="J55" r:id="rId12" xr:uid="{59FE4254-5AFB-471B-AEA6-0CF2744772DF}"/>
+    <hyperlink ref="J54" r:id="rId13" xr:uid="{11D6345D-04D2-4C50-B2ED-D03BA7811DA2}"/>
+    <hyperlink ref="J53" r:id="rId14" xr:uid="{A9349DB9-0FF9-431A-93BB-C4F24836F429}"/>
+    <hyperlink ref="J52" r:id="rId15" xr:uid="{60992984-D366-4936-94CD-0604DC314B17}"/>
+    <hyperlink ref="J51" r:id="rId16" xr:uid="{3AC6155A-DD81-49EF-BEE5-73FEF7A4BE45}"/>
+    <hyperlink ref="J50" r:id="rId17" xr:uid="{8996367E-A2BB-4918-87DF-7C2716E50D58}"/>
+    <hyperlink ref="J49" r:id="rId18" xr:uid="{D5428146-BC70-41CE-B713-F4240981A7CC}"/>
+    <hyperlink ref="J48" r:id="rId19" xr:uid="{F0A4D3B8-866A-4664-B8B6-C60CA02FB8F6}"/>
+    <hyperlink ref="J47" r:id="rId20" xr:uid="{28B99380-49BF-4DC4-94AA-EE83B3FB4E1F}"/>
+    <hyperlink ref="J46" r:id="rId21" xr:uid="{34F6FC8F-3D67-467B-83A4-C4EC02CA4DD8}"/>
+    <hyperlink ref="J45" r:id="rId22" xr:uid="{DC5B0713-FD0F-4229-9962-813C58C099AE}"/>
+    <hyperlink ref="J44" r:id="rId23" xr:uid="{C18A41A9-5346-4E15-BA2D-BE2C1D448503}"/>
+    <hyperlink ref="J43" r:id="rId24" xr:uid="{216F0CBF-ACFF-41D0-A0C3-2B1B133368D6}"/>
+    <hyperlink ref="J42" r:id="rId25" xr:uid="{15503DD4-8DC6-4E8E-9783-4672AE87254E}"/>
+    <hyperlink ref="J41" r:id="rId26" xr:uid="{D952898D-4B54-4B71-AC5B-98E76EC47529}"/>
+    <hyperlink ref="J40" r:id="rId27" xr:uid="{3FCED829-2860-4A76-A962-20F2B70B1AE8}"/>
+    <hyperlink ref="J39" r:id="rId28" xr:uid="{902861CE-F0DC-4B4C-A287-7B4ABE342973}"/>
+    <hyperlink ref="J38" r:id="rId29" xr:uid="{AD0832D1-B057-4651-BB64-87CEBE5CF149}"/>
+    <hyperlink ref="J37" r:id="rId30" xr:uid="{29C5E761-E391-4B2B-A526-356D72B5227F}"/>
+    <hyperlink ref="J36" r:id="rId31" xr:uid="{A0F2F790-BC65-41DB-BF56-C725D7FD7117}"/>
+    <hyperlink ref="J35" r:id="rId32" xr:uid="{AF6E5DA5-E1DC-46E1-AA9D-139DB32DAD29}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{5202ECD5-1F01-466F-89CD-39476DF2EE4E}"/>
+    <hyperlink ref="J33" r:id="rId34" xr:uid="{70DB60E9-A20F-4AA6-9C61-27836B59656D}"/>
+    <hyperlink ref="J32" r:id="rId35" xr:uid="{DB782125-213D-44F7-B1D9-4D964D4B1F7F}"/>
+    <hyperlink ref="J31" r:id="rId36" xr:uid="{24A3CC63-DA83-466E-9CC5-C0444BB47376}"/>
+    <hyperlink ref="J30" r:id="rId37" xr:uid="{C7B9ED62-819E-42BC-B290-84895844753A}"/>
+    <hyperlink ref="J29" r:id="rId38" xr:uid="{9D5A1443-9591-4700-A5C0-483ADD62B25B}"/>
+    <hyperlink ref="J28" r:id="rId39" xr:uid="{BDC543A6-5842-4728-9ACA-37DFA1197C8C}"/>
+    <hyperlink ref="J27" r:id="rId40" xr:uid="{8174478B-38C0-482F-ABBA-47F88DFD778C}"/>
+    <hyperlink ref="J26" r:id="rId41" xr:uid="{B7D54CDF-8A53-45C8-B7CA-529D03CE1497}"/>
+    <hyperlink ref="J25" r:id="rId42" xr:uid="{9DC23D31-A617-480D-A5B5-3DCD6671550D}"/>
+    <hyperlink ref="J24" r:id="rId43" xr:uid="{AE2CEFAE-64A9-4EC0-B265-73D32C168EDE}"/>
+    <hyperlink ref="J23" r:id="rId44" xr:uid="{C10D72B9-442C-406A-B654-A0B7F37347B0}"/>
+    <hyperlink ref="J22" r:id="rId45" xr:uid="{32B55323-F847-4BB6-ABA5-05806B93F1A3}"/>
+    <hyperlink ref="J21" r:id="rId46" xr:uid="{8EAC1CF8-C7BB-4D4E-9BD6-46584EBD0E19}"/>
+    <hyperlink ref="J20" r:id="rId47" xr:uid="{22B9226F-5A6A-4FA9-9C46-62677D32214D}"/>
+    <hyperlink ref="J19" r:id="rId48" xr:uid="{FE70383B-218E-4857-A6BB-18C2507FFEE0}"/>
+    <hyperlink ref="J18" r:id="rId49" xr:uid="{51E1921B-4BE8-4348-AF1C-6B5C9155A8E7}"/>
+    <hyperlink ref="J17" r:id="rId50" xr:uid="{C759CEB0-3779-47B4-B8E0-BF2307B35D32}"/>
+    <hyperlink ref="J16" r:id="rId51" xr:uid="{AE74A590-419D-4926-87D6-430F4C45B339}"/>
+    <hyperlink ref="J15" r:id="rId52" xr:uid="{8BFBEB1A-5663-4635-9206-EAAB9D45793D}"/>
+    <hyperlink ref="J14" r:id="rId53" xr:uid="{95238CF3-ED97-4629-BC17-8DA6D18F8964}"/>
+    <hyperlink ref="J13" r:id="rId54" xr:uid="{685EB5E9-2B0E-4EB7-89D0-540DCDFDC879}"/>
+    <hyperlink ref="J12" r:id="rId55" xr:uid="{C88C742A-F80B-4C6A-829F-04337FAB0C38}"/>
+    <hyperlink ref="J11" r:id="rId56" xr:uid="{BDE4AF3A-098B-44C3-ACE2-01122986F045}"/>
+    <hyperlink ref="J10" r:id="rId57" xr:uid="{21E6C31D-F10B-4FB4-82B7-AB9EC549883A}"/>
+    <hyperlink ref="J8" r:id="rId58" xr:uid="{E52637A3-4CDB-4921-9C48-4B69465984BB}"/>
+    <hyperlink ref="J9" r:id="rId59" xr:uid="{10BE823D-B6BE-469C-9AEA-8C08EEB20912}"/>
+    <hyperlink ref="I8" r:id="rId60" xr:uid="{ABE088A2-E1D6-4483-BE45-A1035F2978ED}"/>
+    <hyperlink ref="I9" r:id="rId61" xr:uid="{24A2398E-CBA2-4E24-8FDF-A6159AF6B9BB}"/>
+    <hyperlink ref="I10" r:id="rId62" xr:uid="{4CF4DD9D-4AB0-4281-9C33-2AD689FE662A}"/>
+    <hyperlink ref="I11" r:id="rId63" xr:uid="{8CE93C26-0DD8-440E-9FE2-12EEB2989BAC}"/>
+    <hyperlink ref="I12" r:id="rId64" xr:uid="{8AA416AE-CEB4-4182-86C6-7956B0F51D7F}"/>
+    <hyperlink ref="I13" r:id="rId65" xr:uid="{0129C5B2-5E83-486A-A6B0-D524A85774B1}"/>
+    <hyperlink ref="I14" r:id="rId66" xr:uid="{12B75F7A-4697-4135-839B-B88258A1D71F}"/>
+    <hyperlink ref="I15" r:id="rId67" xr:uid="{3FE835F4-3951-4946-9283-4C7FBE3F1AFB}"/>
+    <hyperlink ref="I16" r:id="rId68" xr:uid="{D67B3045-91EE-48D4-B3D1-09B33FFC9BAA}"/>
+    <hyperlink ref="I17" r:id="rId69" xr:uid="{55A4848F-2F6E-4A29-A9A1-B647535EA4F4}"/>
+    <hyperlink ref="I18" r:id="rId70" xr:uid="{D9DD9527-11B1-451C-9B02-7D03D4BB2222}"/>
+    <hyperlink ref="I19" r:id="rId71" xr:uid="{D206ED97-562A-4954-B8B3-6A6103848C9B}"/>
+    <hyperlink ref="I20" r:id="rId72" xr:uid="{CE7C04BD-D8AB-4E47-953D-6F5E92E910BF}"/>
+    <hyperlink ref="I21" r:id="rId73" xr:uid="{829FA3A7-B079-4AAB-993F-E674D440159D}"/>
+    <hyperlink ref="I22" r:id="rId74" xr:uid="{35958A10-A504-4D1B-B281-FFAF7781AB9F}"/>
+    <hyperlink ref="I23" r:id="rId75" xr:uid="{EEAB08AB-4C0C-49F1-9663-7FA587EC8AC0}"/>
+    <hyperlink ref="I24" r:id="rId76" xr:uid="{E7E7CA47-CEF0-4B56-8BFF-1B05C557B628}"/>
+    <hyperlink ref="I25" r:id="rId77" xr:uid="{3C8B37B1-169F-4AC3-91B4-71275EDE3387}"/>
+    <hyperlink ref="I26" r:id="rId78" xr:uid="{44459978-7DF9-40D0-977D-8392D68FE557}"/>
+    <hyperlink ref="I27" r:id="rId79" xr:uid="{A5F9E63E-F084-457E-91F1-1E364239E658}"/>
+    <hyperlink ref="I28" r:id="rId80" xr:uid="{6793C55E-0A2E-449E-B4CF-E1F12958262C}"/>
+    <hyperlink ref="I29" r:id="rId81" xr:uid="{63EFE04D-2FC3-49B8-90AE-4617F7CB66FB}"/>
+    <hyperlink ref="I30" r:id="rId82" xr:uid="{09F3F017-5991-490F-A93D-BD5E11220BE4}"/>
+    <hyperlink ref="I31" r:id="rId83" xr:uid="{368BFF51-3043-4199-8898-C0713F42B606}"/>
+    <hyperlink ref="I32" r:id="rId84" xr:uid="{1CC16C8D-E21B-4E14-AC46-DE07B6E8E3EB}"/>
+    <hyperlink ref="I34" r:id="rId85" xr:uid="{1E3EDB47-E827-4935-9E11-EB82EF880EFF}"/>
+    <hyperlink ref="I35" r:id="rId86" xr:uid="{1BF6F663-9B4B-4F80-BCCA-91376D375992}"/>
+    <hyperlink ref="I36" r:id="rId87" xr:uid="{482ECFFE-5686-4BAE-8164-5398C65B896B}"/>
+    <hyperlink ref="I37" r:id="rId88" xr:uid="{C20624C2-2D13-4CC5-8FF5-FDEA716EA6CA}"/>
+    <hyperlink ref="I38" r:id="rId89" xr:uid="{E75B6796-1669-4D49-AEDA-C0A82DF30634}"/>
+    <hyperlink ref="I39" r:id="rId90" xr:uid="{5EE2D7AF-AD11-4BAB-9858-696AB0BA090A}"/>
+    <hyperlink ref="I40" r:id="rId91" xr:uid="{5A0B13B7-280B-4660-AA09-5BA734FA991E}"/>
+    <hyperlink ref="I41" r:id="rId92" xr:uid="{49969CC0-0751-4388-A58D-2CFAF981E354}"/>
+    <hyperlink ref="I42" r:id="rId93" xr:uid="{B410299C-55FE-4892-83C6-7651AAC0F82C}"/>
+    <hyperlink ref="I43" r:id="rId94" xr:uid="{574D2E86-AD8C-408C-8266-08749E8F8054}"/>
+    <hyperlink ref="I45" r:id="rId95" xr:uid="{BC5EECF5-3731-4712-AE8E-8954AC93A3F8}"/>
+    <hyperlink ref="I46" r:id="rId96" xr:uid="{25C67A55-CB15-49A9-B6DA-26356CEDDF45}"/>
+    <hyperlink ref="I47" r:id="rId97" xr:uid="{3060DAF7-97EB-4D15-A739-8351B3AB3E7A}"/>
+    <hyperlink ref="I48" r:id="rId98" xr:uid="{6AA161D2-0869-4FE8-B049-E5591EE2BCB6}"/>
+    <hyperlink ref="I49" r:id="rId99" xr:uid="{FE04A33C-3420-4D31-9C9A-BF6C5427AC5A}"/>
+    <hyperlink ref="I50" r:id="rId100" xr:uid="{31A866AD-7A1A-4216-A40B-A0996D2B76E9}"/>
+    <hyperlink ref="I51" r:id="rId101" xr:uid="{34D7B218-6E84-4AB5-B5D1-56CEB8196614}"/>
+    <hyperlink ref="I53" r:id="rId102" xr:uid="{A9553524-7E72-43C8-B039-9651CD947A39}"/>
+    <hyperlink ref="I55" r:id="rId103" xr:uid="{7E19D16B-BD23-4078-85C8-9D97BA8B8724}"/>
+    <hyperlink ref="I56" r:id="rId104" xr:uid="{C631345A-7BBE-4EE3-A49F-311CAAD9644E}"/>
+    <hyperlink ref="I57" r:id="rId105" xr:uid="{52E5B931-B7FF-423B-B8D1-286E98952BEB}"/>
+    <hyperlink ref="I58" r:id="rId106" xr:uid="{25A34128-0390-4F9B-956A-B14C5D807114}"/>
+    <hyperlink ref="I60" r:id="rId107" xr:uid="{EFC70823-6BA6-4777-9517-B04B958C4E9B}"/>
+    <hyperlink ref="I61" r:id="rId108" xr:uid="{DF78C8B0-4C3B-4D1B-A96F-9D96E79816D1}"/>
+    <hyperlink ref="I62" r:id="rId109" xr:uid="{1F5FAF2A-994D-474F-830C-BA3DBD8B15F5}"/>
+    <hyperlink ref="I63" r:id="rId110" xr:uid="{11C5C379-4583-4678-A251-5FE1E3130720}"/>
+    <hyperlink ref="I64" r:id="rId111" xr:uid="{3F7AD262-6EBF-4F3C-A84F-5454B32290B6}"/>
+    <hyperlink ref="I65" r:id="rId112" xr:uid="{16784B1E-66D8-4C0C-B346-D4AFA58B8BD1}"/>
+    <hyperlink ref="I66" r:id="rId113" xr:uid="{FD6570B3-842C-4068-9BF2-2D6CEB2B8902}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
-  <drawing r:id="rId61"/>
-  <legacyDrawing r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
+  <drawing r:id="rId115"/>
+  <legacyDrawing r:id="rId116"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId63">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId64">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId117">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId118">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>469900</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -2587,13 +3051,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId63"/>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId117"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId65">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId66">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId119">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId120">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -2603,22 +3067,22 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>469900</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>203200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId65"/>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId119"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId67">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId68">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId121">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId122">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -2628,28 +3092,28 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>469900</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId67"/>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId121"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId69">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId70">
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId123">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId124">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>222250</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
@@ -2662,7 +3126,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId69"/>
+        <oleObject progId="Acrobat Document" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId123"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
